--- a/sulamericana/datasets_sula/confrontos_oitavas_sula.xlsx
+++ b/sulamericana/datasets_sula/confrontos_oitavas_sula.xlsx
@@ -558,7 +558,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
@@ -584,7 +584,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>33</v>
@@ -610,7 +610,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
@@ -636,7 +636,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>35</v>
@@ -662,7 +662,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -688,7 +688,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>37</v>
@@ -714,7 +714,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>38</v>
@@ -740,7 +740,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>39</v>
@@ -766,7 +766,7 @@
         <v>16</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>40</v>
@@ -792,7 +792,7 @@
         <v>17</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
         <v>41</v>
@@ -818,7 +818,7 @@
         <v>18</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
         <v>42</v>
@@ -844,7 +844,7 @@
         <v>19</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
         <v>43</v>
@@ -870,7 +870,7 @@
         <v>20</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
         <v>44</v>
@@ -896,7 +896,7 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
         <v>45</v>
@@ -922,7 +922,7 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
         <v>46</v>
@@ -948,7 +948,7 @@
         <v>23</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
         <v>47</v>

--- a/sulamericana/datasets_sula/confrontos_oitavas_sula.xlsx
+++ b/sulamericana/datasets_sula/confrontos_oitavas_sula.xlsx
@@ -40,76 +40,76 @@
     <t>Visitante_ID_Time</t>
   </si>
   <si>
-    <t>Jogo A</t>
-  </si>
-  <si>
-    <t>Jogo B</t>
-  </si>
-  <si>
-    <t>Jogo C</t>
-  </si>
-  <si>
-    <t>Jogo D</t>
-  </si>
-  <si>
-    <t>Jogo E</t>
-  </si>
-  <si>
-    <t>Jogo F</t>
-  </si>
-  <si>
-    <t>Jogo G</t>
-  </si>
-  <si>
-    <t>Jogo H</t>
-  </si>
-  <si>
-    <t>1_A</t>
-  </si>
-  <si>
-    <t>1_B</t>
-  </si>
-  <si>
-    <t>1_C</t>
-  </si>
-  <si>
-    <t>1_D</t>
-  </si>
-  <si>
-    <t>1_E</t>
-  </si>
-  <si>
-    <t>1_F</t>
-  </si>
-  <si>
-    <t>1_G</t>
-  </si>
-  <si>
-    <t>1_H</t>
-  </si>
-  <si>
-    <t>2_A</t>
-  </si>
-  <si>
-    <t>2_B</t>
-  </si>
-  <si>
-    <t>2_C</t>
-  </si>
-  <si>
-    <t>2_D</t>
-  </si>
-  <si>
-    <t>2_E</t>
-  </si>
-  <si>
-    <t>2_F</t>
-  </si>
-  <si>
-    <t>2_G</t>
-  </si>
-  <si>
-    <t>2_H</t>
+    <t>Jogo 1 (JG1)</t>
+  </si>
+  <si>
+    <t>Jogo 2 (JG2)</t>
+  </si>
+  <si>
+    <t>Jogo 3 (JG3)</t>
+  </si>
+  <si>
+    <t>Jogo 4 (JG4)</t>
+  </si>
+  <si>
+    <t>Jogo 5 (JG5)</t>
+  </si>
+  <si>
+    <t>Jogo 6 (JG6)</t>
+  </si>
+  <si>
+    <t>Jogo 7 (JG7)</t>
+  </si>
+  <si>
+    <t>Jogo 8 (JG8)</t>
+  </si>
+  <si>
+    <t>1_1</t>
+  </si>
+  <si>
+    <t>1_2</t>
+  </si>
+  <si>
+    <t>1_3</t>
+  </si>
+  <si>
+    <t>1_4</t>
+  </si>
+  <si>
+    <t>1_5</t>
+  </si>
+  <si>
+    <t>1_6</t>
+  </si>
+  <si>
+    <t>1_7</t>
+  </si>
+  <si>
+    <t>1_8</t>
+  </si>
+  <si>
+    <t>2_1</t>
+  </si>
+  <si>
+    <t>2_2</t>
+  </si>
+  <si>
+    <t>2_3</t>
+  </si>
+  <si>
+    <t>2_4</t>
+  </si>
+  <si>
+    <t>2_5</t>
+  </si>
+  <si>
+    <t>2_6</t>
+  </si>
+  <si>
+    <t>2_7</t>
+  </si>
+  <si>
+    <t>2_8</t>
   </si>
   <si>
     <t>Gremiomaniasm</t>
